--- a/ope.ed.gov/2013/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2013.xlsx
+++ b/ope.ed.gov/2013/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2013.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -607,52 +604,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2013.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>824.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -660,19 +699,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231411.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>824.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -707,19 +746,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B4">
-        <v>432348.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>219.0</v>
+        <v>906.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -754,19 +793,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>906.0</v>
+        <v>1221.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -804,13 +843,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
         <v>1221.0</v>
@@ -851,13 +890,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
         <v>1221.0</v>
@@ -895,19 +934,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B8">
-        <v>449931.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>1221.0</v>
+        <v>842.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -942,19 +981,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>842.0</v>
+        <v>1848.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -975,7 +1014,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N9">
         <v>0.0</v>
@@ -989,19 +1028,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231581.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>1848.0</v>
+        <v>728.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -1022,7 +1061,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N10">
         <v>0.0</v>
@@ -1036,19 +1075,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231785.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>728.0</v>
+        <v>5232.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -1083,19 +1122,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>5232.0</v>
+        <v>8376.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -1133,13 +1172,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>8376.0</v>
@@ -1160,7 +1199,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L13">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M13">
         <v>0.0</v>
@@ -1177,19 +1216,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B14">
-        <v>231624.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>8376.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1207,7 +1246,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L14">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M14">
         <v>0.0</v>
@@ -1224,19 +1263,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B15">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>1312.0</v>
+        <v>4280.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1271,19 +1310,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>4280.0</v>
+        <v>1640.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1318,19 +1357,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>1640.0</v>
+        <v>1017.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1365,19 +1404,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B18">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>1017.0</v>
+        <v>10845.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1415,13 +1454,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
         <v>10845.0</v>
@@ -1459,19 +1498,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B20">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>10845.0</v>
+        <v>1278.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1509,13 +1548,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
         <v>1278.0</v>
@@ -1553,19 +1592,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B22">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>1278.0</v>
+        <v>959.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1600,19 +1639,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>959.0</v>
+        <v>1512.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1647,19 +1686,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>1512.0</v>
+        <v>33917.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1694,19 +1733,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>33917.0</v>
+        <v>1070.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1741,19 +1780,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>1070.0</v>
+        <v>4622.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1768,16 +1807,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K26">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M26">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O26">
         <v>0.0</v>
@@ -1788,19 +1827,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>4622.0</v>
+        <v>750.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1815,16 +1854,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M27">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O27">
         <v>0.0</v>
@@ -1835,19 +1874,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>750.0</v>
+        <v>20181.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1856,7 +1895,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
@@ -1868,7 +1907,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N28">
         <v>0.0</v>
@@ -1882,19 +1921,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>20181.0</v>
+        <v>1039.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1903,7 +1942,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J29">
         <v>0.0</v>
@@ -1915,7 +1954,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N29">
         <v>0.0</v>
@@ -1929,19 +1968,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>1039.0</v>
+        <v>77338.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1976,19 +2015,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B31">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>77338.0</v>
+        <v>4960.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2009,7 +2048,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -2026,13 +2065,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
         <v>4960.0</v>
@@ -2056,7 +2095,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N32">
         <v>0.0</v>
@@ -2073,13 +2112,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
         <v>4960.0</v>
@@ -2117,19 +2156,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>4960.0</v>
+        <v>2713.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2164,19 +2203,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>2713.0</v>
+        <v>3486.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2211,19 +2250,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>3486.0</v>
+        <v>2924.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2258,19 +2297,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B37">
-        <v>232788.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>2924.0</v>
+        <v>51803.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2279,7 +2318,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I37">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J37">
         <v>0.0</v>
@@ -2288,13 +2327,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L37">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M37">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N37">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O37">
         <v>0.0</v>
@@ -2308,13 +2347,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
         <v>51803.0</v>
@@ -2326,22 +2365,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I38">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="J38">
         <v>4.0</v>
       </c>
-      <c s="1" r="J38">
-        <v>0.0</v>
-      </c>
       <c s="1" r="K38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L38">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="M38">
         <v>1.0</v>
       </c>
       <c s="1" r="N38">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O38">
         <v>0.0</v>
@@ -2355,13 +2394,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
         <v>51803.0</v>
@@ -2373,22 +2412,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I39">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="J39">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="K39">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L39">
         <v>2.0</v>
       </c>
-      <c s="1" r="J39">
-        <v>4.0</v>
-      </c>
-      <c s="1" r="K39">
-        <v>1.0</v>
-      </c>
-      <c s="1" r="L39">
-        <v>13.0</v>
-      </c>
       <c s="1" r="M39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O39">
         <v>0.0</v>
@@ -2402,13 +2441,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
         <v>51803.0</v>
@@ -2423,19 +2462,19 @@
         <v>3.0</v>
       </c>
       <c s="1" r="J40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K40">
         <v>0.0</v>
       </c>
       <c s="1" r="L40">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O40">
         <v>0.0</v>
@@ -2449,13 +2488,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
         <v>51803.0</v>
@@ -2467,7 +2506,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I41">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J41">
         <v>0.0</v>
@@ -2476,13 +2515,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L41">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M41">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N41">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O41">
         <v>0.0</v>
@@ -2496,13 +2535,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>51803.0</v>
@@ -2543,13 +2582,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
         <v>51803.0</v>
@@ -2590,13 +2629,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
         <v>51803.0</v>
@@ -2637,13 +2676,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
         <v>51803.0</v>
@@ -2684,13 +2723,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
         <v>51803.0</v>
@@ -2731,13 +2770,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
         <v>51803.0</v>
@@ -2758,10 +2797,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L47">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M47">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N47">
         <v>0.0</v>
@@ -2778,13 +2817,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
         <v>51803.0</v>
@@ -2805,10 +2844,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L48">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M48">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N48">
         <v>0.0</v>
@@ -2825,13 +2864,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
         <v>51803.0</v>
@@ -2872,13 +2911,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
         <v>51803.0</v>
@@ -2916,19 +2955,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B51">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>51803.0</v>
+        <v>24828.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2949,7 +2988,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N51">
         <v>0.0</v>
@@ -2963,19 +3002,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>24828.0</v>
+        <v>3163.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2996,7 +3035,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
@@ -3010,19 +3049,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>3163.0</v>
+        <v>5630.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -3060,13 +3099,13 @@
         <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
         <v>5630.0</v>
@@ -3104,46 +3143,46 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E55">
+        <v>122</v>
+      </c>
+      <c s="1" r="F55">
+        <v>9928.0</v>
+      </c>
+      <c s="1" r="G55">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H55">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I55">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J55">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K55">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="L55">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M55">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N55">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O55">
         <v>2.0</v>
-      </c>
-      <c t="s" s="1" r="E55">
-        <v>121</v>
-      </c>
-      <c s="1" r="F55">
-        <v>5630.0</v>
-      </c>
-      <c s="1" r="G55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O55">
-        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -3151,19 +3190,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B56">
-        <v>233277.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
-        <v>9928.0</v>
+        <v>3555.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3178,7 +3217,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K56">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L56">
         <v>0.0</v>
@@ -3190,7 +3229,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O56">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -3198,19 +3237,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B57">
-        <v>233310.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
-        <v>3555.0</v>
+        <v>4003.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -3245,19 +3284,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B58">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
-        <v>4003.0</v>
+        <v>662.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -3292,19 +3331,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B59">
-        <v>233611.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
-        <v>662.0</v>
+        <v>5784.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -3339,19 +3378,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B60">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
-        <v>5784.0</v>
+        <v>2630.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -3386,19 +3425,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B61">
-        <v>233648.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
-        <v>2630.0</v>
+        <v>710.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -3433,19 +3472,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B62">
-        <v>233718.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
-        <v>710.0</v>
+        <v>1499.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -3480,19 +3519,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B63">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>1499.0</v>
+        <v>2291.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -3527,19 +3566,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
-        <v>2291.0</v>
+        <v>11033.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -3574,19 +3613,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B65">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
-        <v>11033.0</v>
+        <v>28999.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -3624,13 +3663,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
         <v>28999.0</v>
@@ -3668,19 +3707,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B67">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
-        <v>28999.0</v>
+        <v>4831.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -3718,13 +3757,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
         <v>4831.0</v>
@@ -3762,19 +3801,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B69">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
-        <v>4831.0</v>
+        <v>865.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -3809,19 +3848,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B70">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
-        <v>865.0</v>
+        <v>706.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -3856,19 +3895,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B71">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
-        <v>706.0</v>
+        <v>4140.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -3903,19 +3942,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B72">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
-        <v>4140.0</v>
+        <v>23464.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -3924,7 +3963,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I72">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="J72">
         <v>0.0</v>
@@ -3933,10 +3972,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L72">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M72">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N72">
         <v>0.0</v>
@@ -3950,19 +3989,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B73">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
-        <v>23464.0</v>
+        <v>30974.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -3971,7 +4010,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I73">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J73">
         <v>0.0</v>
@@ -3980,10 +4019,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L73">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M73">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N73">
         <v>0.0</v>
@@ -4000,13 +4039,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
         <v>30974.0</v>
@@ -4030,7 +4069,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M74">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N74">
         <v>0.0</v>
@@ -4044,19 +4083,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B75">
-        <v>234030.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
-        <v>30974.0</v>
+        <v>1675.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -4091,19 +4130,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B76">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
-        <v>1675.0</v>
+        <v>31205.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -4138,19 +4177,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B77">
-        <v>233921.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
-        <v>31205.0</v>
+        <v>582.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -4185,19 +4224,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B78">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
-        <v>582.0</v>
+        <v>1459.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -4232,19 +4271,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B79">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
-        <v>1459.0</v>
+        <v>8654.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -4262,10 +4301,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L79">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M79">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N79">
         <v>0.0</v>
@@ -4279,19 +4318,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B80">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
-        <v>8654.0</v>
+        <v>2277.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -4309,10 +4348,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L80">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M80">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N80">
         <v>0.0</v>
@@ -4326,19 +4365,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B81">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
-        <v>2277.0</v>
+        <v>3468.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -4365,53 +4404,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O81">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c s="1" r="A82">
-        <v>2013.0</v>
-      </c>
-      <c s="1" r="B82">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C82">
-        <v>174</v>
-      </c>
-      <c s="1" r="D82">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E82">
-        <v>175</v>
-      </c>
-      <c s="1" r="F82">
-        <v>3468.0</v>
-      </c>
-      <c s="1" r="G82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O82">
         <v>0.0</v>
       </c>
     </row>
